--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2024-03-27" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -49,12 +48,18 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,7 +81,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -91,6 +96,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -462,25 +470,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="70" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12" customWidth="1" style="3" min="1" max="1"/>
+    <col width="60" customWidth="1" style="3" min="2" max="4"/>
+    <col width="60" customWidth="1" style="4" min="3" max="3"/>
+    <col width="60" customWidth="1" style="4" min="4" max="4"/>
+    <col width="100" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Адрес</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Дата сверки</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Название</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Адрес организации</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Название организации</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Контактные данные</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>ID организации</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="4"/>
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>1, квартал Центральная Усадьба КНИИСХ, Краснодар, Россия</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Краснодар, квартал Центральная Усадьба КНИИСХ, 1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>ФГБНУ Национальный центр зерна имени П. П. Лукьяненко</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>http://www.kniish.ru/ | +7 (861) 222-69-15 | +7 (861) 222-68-97  | пн-чт 08:00–17:00, перерыв 12:00–12:45; пт 08:00–15:45, перерыв 12:00–12:45</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>1148254404</t>
+        </is>
+      </c>
+    </row>
     <row r="4" ht="15.75" customHeight="1" s="4">
       <c r="A4" s="5" t="n"/>
     </row>
@@ -493,95 +562,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" style="4" min="1" max="1"/>
-    <col width="60" customWidth="1" style="4" min="2" max="2"/>
-    <col width="60" customWidth="1" style="4" min="3" max="3"/>
-    <col width="60" customWidth="1" style="4" min="4" max="4"/>
-    <col width="100" customWidth="1" style="4" min="5" max="5"/>
-    <col width="16" customWidth="1" style="4" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Дата сверки</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Название</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Адрес организации</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Название организации</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Контактные данные</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ID организации</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-03-27</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1, квартал Центральная Усадьба КНИИСХ, Краснодар, Россия</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Краснодар, квартал Центральная Усадьба КНИИСХ, 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ФГБНУ Национальный центр зерна имени П. П. Лукьяненко</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>http://www.kniish.ru/ | +7 (861) 222-69-15 | +7 (861) 222-68-97  | пн-чт 08:00–17:00, перерыв 12:00–12:45; пт 08:00–15:45, перерыв 12:00–12:45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1148254404</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -40,13 +40,6 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -57,8 +50,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,23 +74,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -470,13 +460,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12" customWidth="1" style="3" min="1" max="1"/>
     <col width="60" customWidth="1" style="3" min="2" max="4"/>
@@ -487,76 +477,102 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Дата сверки</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Название</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Адрес организации</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Название организации</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Контактные данные</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>ID организации</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>1, квартал Центральная Усадьба КНИИСХ, Краснодар, Россия</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Краснодар, квартал Центральная Усадьба КНИИСХ, 1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ФГБНУ Национальный центр зерна имени П. П. Лукьяненко</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>http://www.kniish.ru/ | +7 (861) 222-69-15 | +7 (861) 222-68-97  | пн-чт 08:00–17:00, перерыв 12:00–12:45; пт 08:00–15:45, перерыв 12:00–12:45</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1148254404</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="4">
-      <c r="A4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="4">
-      <c r="A5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048544" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048545" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048546" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048547" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048548" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048549" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048550" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048551" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048552" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048553" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048554" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048555" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048556" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048557" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048558" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048559" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048560" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048561" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048562" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048563" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048564" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048565" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048566" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="4"/>
+    <row r="1048568" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048569" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048570" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048571" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048572" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -2,43 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3720" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
-      <family val="0"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -50,8 +36,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,42 +50,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -456,53 +418,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col width="12" customWidth="1" style="3" min="1" max="1"/>
-    <col width="60" customWidth="1" style="3" min="2" max="4"/>
-    <col width="60" customWidth="1" style="4" min="3" max="3"/>
-    <col width="60" customWidth="1" style="4" min="4" max="4"/>
-    <col width="100" customWidth="1" style="3" min="5" max="5"/>
-    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="1" max="6"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="50" customWidth="1" style="1" min="3" max="3"/>
+    <col width="50" customWidth="1" style="1" min="4" max="4"/>
+    <col width="80" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Дата сверки</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Название</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Адрес организации</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Название организации</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Контактные данные</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>ID организации</t>
         </is>
@@ -511,71 +473,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, квартал Центральная Усадьба КНИИСХ, Краснодар, Россия</t>
+          <t>92, посёлок ВНИИСС, Россия</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Краснодар, квартал Центральная Усадьба КНИИСХ, 1</t>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 92</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ФГБНУ Национальный центр зерна имени П. П. Лукьяненко</t>
+          <t>Всероссийский Научно-исследовательский институт Защиты Растений</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.kniish.ru/ | +7 (861) 222-69-15 | +7 (861) 222-68-97  | пн-чт 08:00–17:00, перерыв 12:00–12:45; пт 08:00–15:45, перерыв 12:00–12:45</t>
+          <t>http://vniizr.ru/ +7 (47340) 5-32-95+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1148254404</t>
+          <t>145406044714</t>
         </is>
       </c>
     </row>
-    <row r="1048544" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048545" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048546" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048547" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048548" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048549" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048550" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048551" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048552" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048553" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048554" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048555" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048556" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048557" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048558" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048559" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048560" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048561" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048562" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048563" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048564" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048565" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048566" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048567" ht="12.75" customHeight="1" s="4"/>
-    <row r="1048568" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048569" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048570" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048571" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048572" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048573" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048574" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="4"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>86, посёлок ВНИИСС, Россия</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1207875443</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>85, посёлок ВНИИСС, Россия</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ДК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>230090044026</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>89/1, посёлок ВНИИСС, Россия</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 89/1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>МКДОУ детский сад п. Вниисс</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://dsvniiss.obrvrn.ru/ +7 (47340) 5-32- пн-пт 07:00–19:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1584913103</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>84, посёлок ВНИИСС, Россия</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 84</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>СК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ежедневно, 08:00–21:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>141119320802</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>102А, посёлок ВНИИСС, Россия</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 102А</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Пекарня</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>140495711277</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3720" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6510" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" state="visible" r:id="rId1"/>
@@ -422,16 +422,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="6"/>
-    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="4"/>
     <col width="50" customWidth="1" style="1" min="3" max="3"/>
     <col width="50" customWidth="1" style="1" min="4" max="4"/>
     <col width="80" customWidth="1" style="1" min="5" max="5"/>
@@ -510,27 +510,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>86, посёлок ВНИИСС, Россия</t>
+          <t>85, посёлок ВНИИСС, Россия</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+          <t>ДК ВНИИСС</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1207875443</t>
+          <t>230090044026</t>
         </is>
       </c>
     </row>
@@ -542,27 +542,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>85, посёлок ВНИИСС, Россия</t>
+          <t>89/1, посёлок ВНИИСС, Россия</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 89/1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ДК ВНИИСС</t>
+          <t>МКДОУ детский сад п. Вниисс</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+          <t>https://dsvniiss.obrvrn.ru/ +7 (47340) 5-32- пн-пт 07:00–19:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>230090044026</t>
+          <t>1584913103</t>
         </is>
       </c>
     </row>
@@ -574,27 +574,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>89/1, посёлок ВНИИСС, Россия</t>
+          <t>84, посёлок ВНИИСС, Россия</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 89/1</t>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 84</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>МКДОУ детский сад п. Вниисс</t>
+          <t>СК ВНИИСС</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://dsvniiss.obrvrn.ru/ +7 (47340) 5-32- пн-пт 07:00–19:00</t>
+          <t xml:space="preserve">  ежедневно, 08:00–21:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1584913103</t>
+          <t>141119320802</t>
         </is>
       </c>
     </row>
@@ -606,57 +606,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>84, посёлок ВНИИСС, Россия</t>
+          <t>102А, посёлок ВНИИСС, Россия</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 84</t>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 102А</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>СК ВНИИСС</t>
+          <t>Пекарня</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ежедневно, 08:00–21:00</t>
+          <t>  </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>141119320802</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>102А, посёлок ВНИИСС, Россия</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 102А</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Пекарня</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>140495711277</t>
         </is>

--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6510" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13950" yWindow="0" windowWidth="26520" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,9 +19,9 @@
   <fonts count="2">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -134,114 +134,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -253,160 +195,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -419,19 +332,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="1"/>
-    <col width="50" customWidth="1" style="1" min="2" max="4"/>
+    <col width="13" customWidth="1" style="1" min="1" max="6"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
     <col width="50" customWidth="1" style="1" min="3" max="3"/>
     <col width="50" customWidth="1" style="1" min="4" max="4"/>
     <col width="80" customWidth="1" style="1" min="5" max="5"/>
@@ -478,27 +391,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>92, посёлок ВНИИСС, Россия</t>
+          <t>Центральная ул., 86, село Айдарово, Россия</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 92</t>
+          <t>Воронежская область, Рамонский район, село Айдарово, Центральная улица, 86</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Всероссийский Научно-исследовательский институт Защиты Растений</t>
+          <t>Администрация Айдаровского сельского поселения Рамонского муниципального района Воронежской области</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://vniizr.ru/ +7 (47340) 5-32-95+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+          <t>http://aydarovskoe.ru/ +7 (47340) 5-37- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>145406044714</t>
+          <t>96497088380</t>
         </is>
       </c>
     </row>
@@ -510,128 +423,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>85, посёлок ВНИИСС, Россия</t>
+          <t>86, посёлок ВНИИСС, Россия</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ДК ВНИИСС</t>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>230090044026</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>89/1, посёлок ВНИИСС, Россия</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 89/1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>МКДОУ детский сад п. Вниисс</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://dsvniiss.obrvrn.ru/ +7 (47340) 5-32- пн-пт 07:00–19:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1584913103</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>84, посёлок ВНИИСС, Россия</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 84</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>СК ВНИИСС</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ежедневно, 08:00–21:00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>141119320802</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>102А, посёлок ВНИИСС, Россия</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 102А</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Пекарня</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>140495711277</t>
+          <t>1207875443</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13950" yWindow="0" windowWidth="26520" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15810" yWindow="0" windowWidth="26520" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" state="visible" r:id="rId1"/>
@@ -335,10 +335,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -391,27 +391,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Центральная ул., 86, село Айдарово, Россия</t>
+          <t>ул. Некрасова, 11, стр. 7, посёлок Коренёво, дачный посёлок Красково, Россия</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, село Айдарово, Центральная улица, 86</t>
+          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, посёлок Коренёво, улица Некрасова, 11, стр. 7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Администрация Айдаровского сельского поселения Рамонского муниципального района Воронежской области</t>
+          <t>Внии Крахмала и переработки крахмалсодержащего сырья</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://aydarovskoe.ru/ +7 (47340) 5-37- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+          <t>http://arrisp.ru/ +7 (495) 557-15- пн-пт 08:00–17:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>96497088380</t>
+          <t>1023394104</t>
         </is>
       </c>
     </row>
@@ -423,27 +423,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>86, посёлок ВНИИСС, Россия</t>
+          <t>ул. Карла Маркса, 39, дачный посёлок Красково, Россия</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, улица Карла Маркса, 39</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+          <t>Территориальное управление Красково</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+          <t>http://zkh-kraskovo.ru/ +7 (495) 501-55- пн-чт 09:00–18:00, перерыв 13:00–13:45; пт 09:00–16:45, перерыв 13:00–13:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1207875443</t>
+          <t>212312444507</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ул. Карла Маркса, 39, дачный посёлок Красково, Россия</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, улица Карла Маркса, 39</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Администрация Городского Поселения Красково Люберецкого Муниципального района</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://www.kraskovo.ru/ +7 (495) 501-55- пн-чт 09:00–18:00, перерыв 13:00–14:00; пт 09:00–16:45, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1053560838</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ул. Некрасова, 11, посёлок Коренёво, дачный посёлок Красково, Россия</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, посёлок Коренёво, улица Некрасова, 11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Теплострой-К РЭУ № 1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  пн-пт 08:00–17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1073552481</t>
         </is>
       </c>
     </row>

--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -2,26 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15810" yWindow="0" windowWidth="26520" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -50,18 +67,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -134,56 +164,114 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -195,131 +283,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -331,19 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="6"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
     <col width="50" customWidth="1" style="1" min="2" max="2"/>
     <col width="50" customWidth="1" style="1" min="3" max="3"/>
     <col width="50" customWidth="1" style="1" min="4" max="4"/>
@@ -386,133 +503,3618 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ул. Некрасова, 11, стр. 7, посёлок Коренёво, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, посёлок Коренёво, улица Некрасова, 11, стр. 7</t>
+          <t>Воронежская область, Рамонский район, Айдаровское сельское поселение, хутор Красное, 109</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Внии Крахмала и переработки крахмалсодержащего сырья</t>
+          <t>АвтоРемКомплекс</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://arrisp.ru/ +7 (495) 557-15- пн-пт 08:00–17:00</t>
+          <t xml:space="preserve"> +7 (962) 331-11- пн-пт 09:00–18:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1023394104</t>
+          <t>88190192110</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ул. Карла Маркса, 39, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, улица Карла Маркса, 39</t>
+          <t>Воронежская область, Рамонский район, хутор Красное, Восточная улица, 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Территориальное управление Красково</t>
+          <t>Калина Ойл</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://zkh-kraskovo.ru/ +7 (495) 501-55- пн-чт 09:00–18:00, перерыв 13:00–13:45; пт 09:00–16:45, перерыв 13:00–13:45</t>
+          <t>https://kalina.ru/ +7 (920) 229-06- ежедневно, 09:10–09:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>212312444507</t>
+          <t>1732522520</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ул. Карла Маркса, 39, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, улица Карла Маркса, 39</t>
+          <t>Воронеж, улица 20-летия Октября, 73А</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Администрация Городского Поселения Красково Люберецкого Муниципального района</t>
+          <t>ООО Буровая компания Н2О-Черноземье</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.kraskovo.ru/ +7 (495) 501-55- пн-чт 09:00–18:00, перерыв 13:00–14:00; пт 09:00–16:45, перерыв 13:00–14:00</t>
+          <t>https://h2o-skvazhina.ru/ +7 (900) 945-88- ежедневно, 09:00–20:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1053560838</t>
+          <t>206255935584</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ул. Некрасова, 11, посёлок Коренёво, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, посёлок Коренёво, улица Некрасова, 11</t>
+          <t>Воронежская область, Новоусманский район, посёлок Отрадное, Тамбовский переулок, 17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Теплострой-К РЭУ № 1</t>
+          <t>Единые Аграрные Технологии</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  пн-пт 08:00–17:00</t>
+          <t>http://eatra.ru/ +7 (900) 300-25- пн-пт 09:00–17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1073552481</t>
+          <t>221115825913</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1207875443</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ДК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>230090044026</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 92</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Всероссийский Научно-исследовательский институт Защиты Растений</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://vniizr.ru/ +7 (47340) 5-32-95+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>145406044714</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 84</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>СК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ежедневно, 08:00–21:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>141119320802</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1207875443</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ДК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>230090044026</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 92</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Всероссийский Научно-исследовательский институт Защиты Растений</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://vniizr.ru/ +7 (47340) 5-32-95+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>145406044714</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 102</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>162401433517</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, село Глушицы, Центральная улица, 8/1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Глушицкий сельский клуб</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  вт 13:00–22:00; ср 09:00–19:00; чт 09:00–18:00; пт,сб 09:00–22:00; вс 09:00–17:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>214747139109</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, село Глушицы, Центральная улица, 10А</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Глушицкий фельдшерско-акушерский пункт</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>204746932640</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Воронежская область, рабочий посёлок Рамонь, Советская улица, 11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Отдел ЗАГС Рамонского района Воронежской области</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 2-20-39+7 (47340) 2-16- вт-чт 08:00–16:00, перерыв 12:00–12:45; пт 08:00–15:00, перерыв 12:00–12:45; сб 08:00–15:00, перерыв 12:00–12:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1219381237</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1207875443</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ДК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>230090044026</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, Айдаровское сельское поселение, хутор Красное, 109</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>АвтоРемКомплекс</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (962) 331-11- пн-пт 09:00–18:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>88190192110</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, хутор Красное, Восточная улица, 2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Калина Ойл</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://kalina.ru/ +7 (920) 229-06- ежедневно, 09:10–09:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1732522520</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Воронеж, улица Революции 1905 года, 84А</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Икс Нэт</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://xnet.com.ru/ +7 (473) 212-17- пн-чт 09:00–18:00; пт 09:00–17:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>180446649233</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, село Айдарово, улица Мазлумова, 12</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Участковый пункт полиции</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://мвд.рф/ +7 (47340) 2-16-52+7 (999) 435-77- вт 10:00–12:00; ср 17:00–19:00; сб 10:00–12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1394790670</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ГБОУ СОШ № 2 пгт Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://kinel-school2.ru/ +7 (84663) 4-61- </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1038040614</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Студенческая улица, 3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Администрация городского округа Кинель Самарской области, Усть-Кинельское территориальное управление</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (84663) 4-69- пн-чт 08:00–17:00, перерыв 12:00–13:00; пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1020828452</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Учебная улица, 1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Самарский государственный аграрный университет</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://www.ssaa.ru/ +7 (939) 754-04-86+7 (84663) 4-61-31+7 (84663) 4-68- </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>107331394046</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Шоссейная улица, 79А</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Пятёрочка</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://5ka.ru/?utm_campaign=kartochka&amp;utm_medium=cpm&amp;utm_source=ya_geo 8 (800) 555-55- ежедневно, 08:00–23:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>136797910766</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Алексеевка, Северная улица, 5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>СВГК</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://svgk.ru/ 8 (800) 707-65- </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>181668827968</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Шоссейная улица, 99Г</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fix Price</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://fix-price.com/ +7 (499) 009-35- ежедневно, 09:00–20:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>95539762300</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, улица Испытателей, 2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Общежитие № 2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>81551139772</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, улица Тимирязева</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>95355150239</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ГБОУ СОШ № 2 пгт Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://kinel-school2.ru/ +7 (84663) 4-61- </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1038040614</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Учебная улица, 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>СГСХА, корпус № 1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://ssaa.ru/ +7 (939) 754-04-86+7 (84663) 4-68- </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>48964748346</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, улица Тимирязева</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>95355150239</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ГБОУ СОШ № 2 пгт Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://kinel-school2.ru/ +7 (84663) 4-61- </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1038040614</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 6Б</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Спортивный комплекс</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>54542930640</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Студенческая улица, 3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Администрация городского округа Кинель Самарской области, Усть-Кинельское территориальное управление</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (84663) 4-69- пн-чт 08:00–17:00, перерыв 12:00–13:00; пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1020828452</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Студенческая улица, 3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Администрация городского округа Кинель Самарской области, Усть-Кинельское территориальное управление</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (84663) 4-69- пн-чт 08:00–17:00, перерыв 12:00–13:00; пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1020828452</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ГБОУ СОШ № 2 пгт Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://kinel-school2.ru/ +7 (84663) 4-61- </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1038040614</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9А</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Общежитие № 4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>232837550830</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Самарская область, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Самарская Областная Лаборотория по Диагностике и Контролю Качества Картофеля</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>http://mcx.samregion.ru/ +7 (84663) 4-67- пн-пт 09:00–18:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>191037688101</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 6Б</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Спортивный комплекс</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>54542930640</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9А</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Радуга</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>138813520225</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Студенческая улица, 3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Администрация городского округа Кинель Самарской области, Усть-Кинельское территориальное управление</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (84663) 4-69- пн-чт 08:00–17:00, перерыв 12:00–13:00; пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1020828452</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ГБОУ СОШ № 2 пгт Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://kinel-school2.ru/ +7 (84663) 4-61- </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1038040614</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Студенческая улица, 3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Администрация городского округа Кинель Самарской области, Усть-Кинельское территориальное управление</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (84663) 4-69- пн-чт 08:00–17:00, перерыв 12:00–13:00; пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1020828452</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 7</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Россельхозбанк</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://rshb.ru/ 8 (800) 100-01-008 (800) 100-78- </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>176086750789</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Самарская область, посёлок городского типа Усть-Кинельский, Спортивная улица, 8А</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>СамГАУ, Инженерный факультет</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>http://www.ssaa.ru/  пн-чт 08:00–17:00; пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1381911454</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ГБОУ СОШ № 2 пгт Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://kinel-school2.ru/ +7 (84663) 4-61- </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1038040614</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 6Б</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Спортивный комплекс</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>54542930640</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 9</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ГБОУ СОШ № 2 пгт Усть-Кинельский</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://kinel-school2.ru/ +7 (84663) 4-61- </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1038040614</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Студенческая улица, 3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Администрация городского округа Кинель Самарской области, Усть-Кинельское территориальное управление</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (84663) 4-69- пн-чт 08:00–17:00, перерыв 12:00–13:00; пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1020828452</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Учебная улица, 1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Самарский государственный аграрный университет</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://www.ssaa.ru/ +7 (939) 754-04-86+7 (84663) 4-61-31+7 (84663) 4-68- </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>107331394046</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Шоссейная улица, 79А</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Пятёрочка</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://5ka.ru/?utm_campaign=kartochka&amp;utm_medium=cpm&amp;utm_source=ya_geo 8 (800) 555-55- ежедневно, 08:00–23:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>136797910766</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Алексеевка, Северная улица, 5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>СВГК</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://svgk.ru/ 8 (800) 707-65- </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>181668827968</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Шоссейная улица, 99Г</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fix Price</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://fix-price.com/ +7 (499) 009-35- ежедневно, 09:00–20:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>95539762300</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Шоссейный переулок, 7</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Премиум</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>http://sm-prm.ru/ 8 (800) 550-02- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1475085976</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Шоссейная улица, 79Ж</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Апрель</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://apteka-april.ru/ 8 (800) 200-90-01+7 (918) 200-90- ежедневно, 08:00–20:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>119504599445</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Спортивная улица, 6Б</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Спортивный комплекс</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>54542930640</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Самарская область, городской округ Кинель, посёлок городского типа Усть-Кинельский, Шоссейная улица, 83А</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Семь+Я</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.7mya.ru/ 8 (800) 550-84-188 (800) 775-90-75+7 (927) 726-81- пн-сб 09:00–20:00; вс 09:00–19:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>139292293017</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Смоленск, Большая Советская улица, 10/2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Смоленская ГСХА</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>http://sgsha.ru/ +7 (4812) 38-28-10+7 (4812) 38-75- пн-чт 08:30–17:30, перерыв 13:00–13:45; пт 08:30–16:15, перерыв 13:00–13:45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1115870418</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Смоленск, Большая Советская улица, 27/20</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Учебный корпус № 2 Смоленской ГСХА</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>http://sgsha.ru/ +7 (4812) 38-87-69+7 (4812) 38-28- пн-чт 08:00–17:00, перерыв 13:00–13:45; пт 08:00–15:45, перерыв 13:00–13:45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>87738432837</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Смоленск, улица Ногина, 32А</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Смолка</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>http://www.hotelsmolka.ru/ +7 (4812) 37-07-08+7 (4812) 37-07-37+7 (920) 307-38- ежедневно, круглосуточно</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>212752391963</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Смоленск, Большая Советская улица, 16/17</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Центрэлектросвязь</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 (800) 333-33-14+7 (4812) 38-83-81+7 (4812) 29-41- пн-пт 09:00–18:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1173770067</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Москва, Угрешская улица, 33, стр. 24</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>АвтоСпецСтудия</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>http://autospecstudio.ru/ +7 (495) 108-68-01+7 (925) 423-23- ежедневно, 10:00–20:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1202866373</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Москва, Угрешская улица, 33</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Реатэкс</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://reatex.ru/ +7 (495) 679-38-47+7 (495) 679-19-92+7 (495) 679-49-39+7 (495) 679-38-35+7 (495) 679-58- </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1184152553</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Москва, Угрешская улица, 33, стр. 3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Производство трикотажа ЛИ-студия</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (916) 629-40- ежедневно, 08:00–21:00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>168171460207</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Москва, Угрешская улица, 12, стр. 1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>АвтоКондиционеры.com</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://автокондиционеры.com/ +7 (499) 136-31-51+7 (964) 551-24- пн-пт 10:00–19:00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1322663677</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Москва, Угрешская улица, 14</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Фото арт</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1258768133</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Москва, Угрешская улица</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ТПУ Угрешская</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.mosmetro.ru/mcc/ +7 (495) 539-54-5432 ежедневно, 05:30–01:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>87557357464</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, Ковалевское сельское поселение, посёлок Прогресс, Красноармейская улица, 2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Сельская библиотека поселка Прогресс</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  вт-пт 10:00–18:00, перерыв 14:00–15:00; сб 12:00–20:00, перерыв 16:00–17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>204608645805</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Краснодар, улица Шоссе Нефтяников, 28</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Прогресс</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>http://progressfood.ru/  пн-чт 09:00–18:00, перерыв 13:00–14:00; пт 09:00–17:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1244135755</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, Прикубанское сельское поселение, посёлок Передовой, улица Алехина, 13</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Отделение почтовой связи Передовой 352208</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.pochta.ru/ 8 (800) 100-00-00+7 (86195) 2-29- вт-пт 08:00–16:00, перерыв 13:00–14:00; сб 08:00–15:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>218565613486</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, посёлок Прикубанский, улица Халтурина, 2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Администрация Прикубанского сельского поселения Новокубанского района</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://prikubanskoe.ru/ +7 (86195) 2-21-40+7 (86195) 2-21-89+7 (86195) 2-21-74+7 (86195) 2-23- пн-пт 08:00–16:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1045546805</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанск, Первомайская улица, 151</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Администрация муниципального образования Новокубанский район</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>http://novokubanskiy.ru/ +7 (86195) 4-15-95+7 (86195) 3-25-62+7 (86195) 3-01- пн-пт 09:00–18:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1079573279</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанск, Первомайская улица, 128</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Администрация Новокубанского городского поселения Новокубанского района</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>http://www.ngpnr.ru/ +7 (86195) 3-26-91+7 (86195) 3-19-80+7 (86195) 3-27-73+7 (86195) 3-01- пн-чт 09:00–18:00, перерыв 13:00–14:00; пт 09:00–17:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1084440509</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Отрадненский район, станица Передовая, улица Мира, 65А</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Администрация Передовского сельского поселения Отрадненского района</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://www.adm-peredovaya.ru/ +7 (86144) 9-54-47+7 (86144) 9-54- пн-пт 08:00–16:12</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7691886864</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Отрадненский район, станица Передовая, Красная улица, 89</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Совет Передовского Сельского Поселения Отрадненского района</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://adm-peredovaya.ru/  </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>204486378456</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Тихорецк, ул. Передовая, 199</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ул. Передовая 201</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://спектр23.рф/proekty/12-peredovaya-201 +7 (495) 988-44- </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>226218132176</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ставропольский край, Изобильненский городской округ, посёлок Передовой</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Железнодорожная станция</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>http://rzd.ru/ 8 (800) 775-00- ежедневно, круглосуточно</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>168809534114</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, поселок Прогресс, улица Мечникова, 11</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Биофабрика</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (86195) 2-12-11+7 (86195) 2-11- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1122230744</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, посёлок Прогресс, улица Мечникова, 8</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Стимул</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (86195) 2-77-29+7 (86195) 2-14- </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>219158764130</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, посёлок Прогресс, улица Мечникова, 11</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Участковый пункт полиции</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://мвд.рф/ +7 (918) 271-72-46+7 (999) 437-68- чт 17:00–19:00; сб 15:00–16:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1348595236</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, Ковалевское сельское поселение, посёлок Прогресс, Красноармейская улица, 2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Сельская библиотека поселка Прогресс</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  вт-пт 10:00–18:00, перерыв 14:00–15:00; сб 12:00–20:00, перерыв 16:00–17:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>204608645805</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанск, Первомайская улица, 151</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Администрация муниципального образования Новокубанский район</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>http://novokubanskiy.ru/ +7 (86195) 4-15-95+7 (86195) 3-25-62+7 (86195) 3-01- пн-пт 09:00–18:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1079573279</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ФГБУ Алтайская государственная зональная машиноиспытательная станция</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Алтайский край, село Поспелиха, Социалистическая улица, 17</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ФГБУ Алтайская государственная зональная машиноиспытательная станция</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>http://altmis.ru/ +7 (962) 792-10-03+7 (962) 792-10- пн-пт 08:00–17:00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1721560643</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Алтайский край, Поспелихинский Центральный сельсовет, село Поспелиха, Октябрьский переулок, 1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Алтайская МИС</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>http://altmis.ru/ +7 (962) 792-55- ежедневно, круглосуточно</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1779070786</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Алтайский край, Поспелихинский район, село Поспелиха</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Поспелихинского района Администрация</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>218907404582</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Алтайский край, Поспелихинский район, село Поспелиха, Вокзальная улица, 5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Железнодорожная станция Поспелиха</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>http://rzd.ru/ 8 (800) 775-00- ежедневно, 08:00–20:45, перерывы 08:20–10:30, 12:30–16:00, 17:30–20:00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1217542470</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Алтайский край, Поспелихинский Центральный сельсовет, село Поспелиха, Социалистическая улица, 28</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Поспелиха, грузовая площадка РЖД</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cargo.rzd.ru/ru/9806?directorate_id=&amp;object_type_id=5&amp;realty_type_id= +7 (960) 947-99- </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>239413053107</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1207875443</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ДК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (47340) 5-38- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>230090044026</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Филиал ФГБУ Россельхозцентр по РБ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, микрорайон Горького, Челябинская улица, 11</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Филиал ФГБУ Россельхозцентр по РБ</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>http://rosselhoscenter.com/ +7 (3012) 23-08-65+7 (3012) 23-28- пн-пт 09:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>196099323688</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, улица Борсоева, 11А</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Межрайонная УФНС № 2 по Республике Бурятия</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.nalog.ru/rn03/ifns/imns03_02/ 8 (800) 222-22- пн 09:00–18:00; вт 09:00–20:00; ср 09:00–18:00; чт 09:00–20:00; пт 09:00–16:45</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1128607977</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, улица Ранжурова, 11</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Улан-Удэ Парк Отель</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://hotel-ulan-ude.ru/ +7 (3012) 56-02-61+7 (3012) 58-01- ежедневно, круглосуточно</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1774616627</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, улица Революции 1905 года, 11А</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Министерство по развитию транспорта, энергетики и дорожного хозяйства Республики Бурятия</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (3012) 45-44- пн-чт 08:30–17:30, перерыв 12:00–13:00; пт 08:30–16:30, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1034594059</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, 110-й микрорайон, 11</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>http://dns-shop.ru/ 8 (800) 770-79- ежедневно, 10:00–20:00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>170184841160</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, Коммунистическая улица, 47А</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Гостиница Бурятия</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>http://www.buryatiahotel.com/ +7 (3012) 58-85- ежедневно, круглосуточно</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1013525919</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, Геологическая улица, 9А</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Октябрьский районный суд города Улан-Удэ Республики Бурятия</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>http://oktiabrsky.bur.sudrf.ru/ +7 (3012) 23-26-30+7 (3012) 23-20-55+7 (3012) 27-81-56+7 (3012) 23-50- пн-чт 09:00–18:15, перерыв 13:00–14:00; пт 09:00–17:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1038598614</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, микрорайон Аршан, улица Радищева, 11А</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>МБДОУ детский сад № 19 Ромашка</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (3012) 48-50- пн-пт 07:30–19:00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1025436952</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, микрорайон Забайкальский, Совхозная улица, 50Д</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Макду Дом культуры Забайкальский г. Улан-Удэ</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>http://klub-media.ru/ +7 (3012) 29-01-30+7 (902) 166-26- пн-пт 09:00–18:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>67469139214</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, Дальненагорная улица, 62Б</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ЖелДорЭкспедиция</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.jde.ru/ 8 (800) 100-55-05+7 (3012) 37-90-50+7 (924) 457-56- пн-пт 09:00–18:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1019334945</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, улица Буйко, 2А</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Городской культурный центр</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (3012) 26-83-99+7 (3012) 26-74- пн-пт 09:00–18:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1129231651</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, улица Сахьяновой, 1А</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Межрайонная ИФНС России № 1 по Республике Бурятия</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.nalog.ru/rn03/ifns/imns03_01/ 8 (800) 222-22-22+7 (3012) 37-09- пн 09:00–18:00; вт 09:00–20:00; ср 09:00–18:00; чт 09:00–20:00; пт 09:00–16:15</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1770438804</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, улица Ленина, 54</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Администрация г. Улан-Удэ</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>http://ulan-ude-info.ru/ +7 (3012) 21-44-55+7 (3012) 21-47- пн-чт 08:30–17:30, перерыв 12:00–12:45; пт 08:30–16:15, перерыв 12:00–12:45</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1006763521</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, село Бичура, Советская улица, 43</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Администрация МО Бичурский район</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (30133) 4-20-90+7 (30133) 4-14-59+7 (30133) 4-12-17+7 (30133) 4-19-34+7 (30133) 4-12-57+7 (30133) 4-10-76+7 (30133) 4-19-55+7 (30133) 4-15-51+7 (30133) 4-23- пн-пт 08:30–17:30, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>245611563377</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, село Бичура, Советская улица, 38</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ГБУЗ Бичурская ЦРБ</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>http://bichcrb.ru/ +7 (30133) 4-12-24+7 (30133) 4-13-23+7 (30133) 4-11- пн-пт 08:00–16:00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>231004669773</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, село Бичура, Советская улица, 45</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Бичурский районный дом культуры</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (30133) 4-14-36+7 (30133) 4-17-57+7 (30133) 4-19- пн-пт 09:00–17:00; сб 21:00–00:00; вс 14:00–16:00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>214854638601</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, село Бичура, Советская улица, 42</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Автовокзал Бичура</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>154344358884</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Селенгинский район, поселок Темник, улица Ленина, 6</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Темник</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  пн-пт 09:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>230952638858</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Улан-Удэ, Ботаническая улица, 7Д</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Kit</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://tk-kit.com/ 8 (800) 234-59-60+7 (914) 984-66- пн-пт 09:00–18:00; сб 10:00–15:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>187199159761</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ФГБУ Гцас Пермский</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Пермь, Промышленная улица, 83</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ФГБУ Гцас Пермский</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>http://agrohim159.ru/ +7 (342) 296-28-54+7 (342) 296-33- пн-чт 08:00–16:30; пт 08:00–15:30</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1015711266</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Пермь, Промышленная улица, 107Б</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Нефтехимпром</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>http://neftehimprom.com/azs/list/ +7 (342) 218-27-02+7 (922) 372-85- ежедневно, круглосуточно</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>93527527934</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Пермь, Промышленная улица, 87</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Вектор</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://vecast.ru/ +7 (342) 248-08- </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>94429686511</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Пермь, Верхне-Муллинская улица, 130</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Кредо Строй</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>http://www.kredo.su/ +7 (342) 294-67-678 (800) 600-59-59+7 (342) 294-66- пн-пт 09:00–18:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>21109708211</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Пермь, Промышленная улица, 110</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Высота-пермь</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (342) 246-18- </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>56655817680</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, посёлок Рассвет, Институтская улица, 13</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Стоматология Рассвет</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://стоматология-рассвет.рф/ +7 (918) 561-65- пн-пт 09:00–19:00, перерыв 13:00–14:00; сб 09:00–15:00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>49573281703</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, посёлок Рассвет, Институтская улица, 8</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/ +7 (495) 232-10-00+7 (989) 512-98- пн-пт 09:00–20:00; сб,вс 10:00–19:00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>91757743468</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ростовская обл., пос. Рассвет, Институтская ул., 4А, к. 1-3</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Рассвет</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (863) 229-33- пн-сб 09:00–18:00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1717578664</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, посёлок Рассвет, Институтская улица, 4А, корп. 2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Импульс</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (909) 411-02- пн-пт 08:30–20:30; сб,вс 09:00–20:00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>123775272737</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, поселок Рассвет, Институтская улица, 12</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>МФЦ Мои документы</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.mfc61.ru/  пн-пт 08:00–17:00, перерыв 12:00–13:48</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1448055295</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, поселок Рассвет, Институтская улица, 12</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Жилремонт</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (86350) 3-79- пн-пт 08:30–17:30, перерыв 12:30–13:30</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1334041228</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, посёлок Рассвет, Институтская улица, 4В</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (988) 514-66- ежедневно, 10:00–22:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>154550092351</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, посёлок Рассвет, Институтская улица, 13</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Участковый пункт полиции</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://мвд.рф/ +7 (999) 471-10- вт,чт 17:00–19:00; сб 15:00–16:00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1310515308</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ростовская область, Аксайский район, посёлок Рассвет, 3-й Садовый переулок, 6А</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Рассвет</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ежедневно, круглосуточно</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>185763048553</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, поселок Прогресс, улица Мечникова, 11</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Биофабрика</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (86195) 2-12-11+7 (86195) 2-11- пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1122230744</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, посёлок Прогресс, улица Мечникова, 8</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Стимул</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +7 (86195) 2-77-29+7 (86195) 2-14- </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>219158764130</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, посёлок Прогресс, улица Мечникова, 11</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Участковый пункт полиции</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://мвд.рф/ +7 (918) 271-72-46+7 (999) 437-68- чт 17:00–19:00; сб 15:00–16:00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1348595236</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанский район, Ковалевское сельское поселение, посёлок Прогресс, Красноармейская улица, 2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Сельская библиотека поселка Прогресс</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  вт-пт 10:00–18:00, перерыв 14:00–15:00; сб 12:00–20:00, перерыв 16:00–17:00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>204608645805</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Новокубанск, Первомайская улица, 151</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Администрация муниципального образования Новокубанский район</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>http://novokubanskiy.ru/ +7 (86195) 4-15-95+7 (86195) 3-25-62+7 (86195) 3-01- пн-пт 09:00–18:00, перерыв 13:00–14:00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1079573279</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -455,10 +455,10 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="13" customWidth="1" style="1" min="1" max="1"/>
     <col width="50" customWidth="1" style="1" min="2" max="2"/>

--- a/outpack.xlsx
+++ b/outpack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15810" yWindow="0" windowWidth="26520" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="18600" yWindow="0" windowWidth="26520" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" state="visible" r:id="rId1"/>
@@ -335,20 +335,22 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E12" sqref="A1:F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="6"/>
-    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="4"/>
     <col width="50" customWidth="1" style="1" min="3" max="3"/>
     <col width="50" customWidth="1" style="1" min="4" max="4"/>
-    <col width="80" customWidth="1" style="1" min="5" max="5"/>
-    <col width="16" customWidth="1" style="1" min="6" max="6"/>
+    <col width="30" customWidth="1" style="1" min="5" max="5"/>
+    <col width="30" customWidth="1" style="1" min="6" max="6"/>
+    <col width="30" customWidth="1" style="1" min="7" max="7"/>
+    <col width="16" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -374,10 +376,20 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Контактные данные</t>
+          <t>Сайт</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Телефон </t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Время работы</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>ID организации</t>
         </is>
@@ -386,128 +398,424 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ул. Некрасова, 11, стр. 7, посёлок Коренёво, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, посёлок Коренёво, улица Некрасова, 11, стр. 7</t>
+          <t>Воронежская область, Рамонский район, Айдаровское сельское поселение, хутор Красное, 109</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Внии Крахмала и переработки крахмалсодержащего сырья</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>http://arrisp.ru/ +7 (495) 557-15- пн-пт 08:00–17:00</t>
-        </is>
-      </c>
+          <t>АвтоРемКомплекс</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1023394104</t>
+          <t>+7 (962) 331-11-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>пн-пт 09:00–18:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>88190192110</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ул. Карла Маркса, 39, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, улица Карла Маркса, 39</t>
+          <t>Воронежская область, Рамонский район, хутор Красное, Восточная улица, 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Территориальное управление Красково</t>
+          <t>Калина Ойл</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://zkh-kraskovo.ru/ +7 (495) 501-55- пн-чт 09:00–18:00, перерыв 13:00–13:45; пт 09:00–16:45, перерыв 13:00–13:45</t>
+          <t>https://kalina.ru/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>212312444507</t>
+          <t>+7 (920) 229-06-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ежедневно, 09:10–09:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1732522520</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ул. Карла Маркса, 39, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, улица Карла Маркса, 39</t>
+          <t>Воронеж, улица 20-летия Октября, 73А</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Администрация Городского Поселения Красково Люберецкого Муниципального района</t>
+          <t>ООО Буровая компания Н2О-Черноземье</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.kraskovo.ru/ +7 (495) 501-55- пн-чт 09:00–18:00, перерыв 13:00–14:00; пт 09:00–16:45, перерыв 13:00–14:00</t>
+          <t>https://h2o-skvazhina.ru/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1053560838</t>
+          <t>+7 (900) 945-88-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ежедневно, 09:00–20:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>206255935584</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ул. Некрасова, 11, посёлок Коренёво, дачный посёлок Красково, Россия</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Московская область, городской округ Люберцы, дачный посёлок Красково, посёлок Коренёво, улица Некрасова, 11</t>
+          <t>Воронежская область, Новоусманский район, посёлок Отрадное, Тамбовский переулок, 17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Теплострой-К РЭУ № 1</t>
+          <t>Единые Аграрные Технологии</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  пн-пт 08:00–17:00</t>
+          <t>http://eatra.ru/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1073552481</t>
+          <t>+7 (900) 300-25-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>пн-пт 09:00–17:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>221115825913</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1207875443</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ДК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+7 (47340) 5-38-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>230090044026</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 92</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Всероссийский Научно-исследовательский институт Защиты Растений</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://vniizr.ru/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+7 (47340) 5-32-95+7 (47340) 5-33-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>145406044714</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 84</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>СК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ежедневно, 08:00–21:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>141119320802</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 86</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ФГБНУ ВНИИСС им. А. Л. Мазлумова</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+7 (47340) 5-33-27+7 (47340) 5-33-26+7 (47340) 5-33-09+7 (47340) 5-33-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1207875443</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 85</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ДК ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+7 (47340) 5-38-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>230090044026</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 92</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Всероссийский Научно-исследовательский институт Защиты Растений</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://vniizr.ru/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+7 (47340) 5-32-95+7 (47340) 5-33-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>пн-пт 08:00–17:00, перерыв 12:00–13:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>145406044714</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Воронежская область, Рамонский район, посёлок ВНИИСС, 102</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ВНИИСС</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>162401433517</t>
         </is>
       </c>
     </row>
